--- a/Data.xlsx
+++ b/Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
   <si>
     <t>JFreeChart</t>
   </si>
@@ -217,6 +217,9 @@
   <si>
     <t>Percent</t>
   </si>
+  <si>
+    <t>Stanford NLP</t>
+  </si>
 </sst>
 </file>
 
@@ -294,13 +297,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FF5F9F00"/>
+      <color rgb="FFFFCC00"/>
       <color rgb="FFFF6600"/>
       <color rgb="FF9F5F00"/>
       <color rgb="FFCC0000"/>
-      <color rgb="FF00FF00"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FFFFCC00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -518,11 +521,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="340922544"/>
-        <c:axId val="340923720"/>
+        <c:axId val="305028240"/>
+        <c:axId val="305033336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="340922544"/>
+        <c:axId val="305028240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -621,7 +624,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340923720"/>
+        <c:crossAx val="305033336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -629,7 +632,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="340923720"/>
+        <c:axId val="305033336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,7 +739,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340922544"/>
+        <c:crossAx val="305028240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -806,13 +809,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -820,7 +829,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>StanfordNLP</a:t>
+              <a:t>Blojsom</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -839,13 +848,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -873,12 +888,16 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -888,12 +907,16 @@
               <a:solidFill>
                 <a:srgbClr val="CC0000"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -903,12 +926,16 @@
               <a:solidFill>
                 <a:srgbClr val="9F5F00"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -918,12 +945,16 @@
               <a:solidFill>
                 <a:srgbClr val="FF6600"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -931,14 +962,18 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="FFCC00"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -948,12 +983,16 @@
               <a:solidFill>
                 <a:srgbClr val="5F9F00"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -963,12 +1002,16 @@
               <a:solidFill>
                 <a:srgbClr val="00FF00"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -977,15 +1020,19 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
+                  <a:lumMod val="90000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:val>
@@ -1059,9 +1106,8 @@
           <a:pPr rtl="0">
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1078,17 +1124,352 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Total # of Classes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$94:$B$98</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>JFreeChart</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CyberNeko</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hive</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Stanford NLP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Blojsom</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$94:$C$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5779</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6688</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="244488408"/>
+        <c:axId val="244483704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="244488408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="244483704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="244483704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="244488408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1320,11 +1701,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="246481176"/>
-        <c:axId val="246482744"/>
+        <c:axId val="305032160"/>
+        <c:axId val="305032944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="246481176"/>
+        <c:axId val="305032160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1423,7 +1804,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246482744"/>
+        <c:crossAx val="305032944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1431,7 +1812,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246482744"/>
+        <c:axId val="305032944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1538,7 +1919,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246481176"/>
+        <c:crossAx val="305032160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1767,11 +2148,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="359085792"/>
-        <c:axId val="359087360"/>
+        <c:axId val="305035296"/>
+        <c:axId val="305035688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="359085792"/>
+        <c:axId val="305035296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1870,7 +2251,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359087360"/>
+        <c:crossAx val="305035688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1878,7 +2259,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="359087360"/>
+        <c:axId val="305035688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1985,7 +2366,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359085792"/>
+        <c:crossAx val="305035296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2196,11 +2577,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="355526328"/>
-        <c:axId val="338837144"/>
+        <c:axId val="305036080"/>
+        <c:axId val="305036472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="355526328"/>
+        <c:axId val="305036080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2299,7 +2680,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="338837144"/>
+        <c:crossAx val="305036472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2307,7 +2688,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="338837144"/>
+        <c:axId val="305036472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2414,7 +2795,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355526328"/>
+        <c:crossAx val="305036080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2650,11 +3031,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="358286376"/>
-        <c:axId val="358289120"/>
+        <c:axId val="305027848"/>
+        <c:axId val="305041568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="358286376"/>
+        <c:axId val="305027848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2753,7 +3134,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358289120"/>
+        <c:crossAx val="305041568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2761,7 +3142,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="358289120"/>
+        <c:axId val="305041568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2868,7 +3249,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358286376"/>
+        <c:crossAx val="305027848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2946,13 +3327,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -2980,12 +3367,16 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -2996,12 +3387,16 @@
               <a:solidFill>
                 <a:srgbClr val="CC0000"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -3011,12 +3406,16 @@
               <a:solidFill>
                 <a:srgbClr val="9F5F00"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -3026,12 +3425,16 @@
               <a:solidFill>
                 <a:srgbClr val="FF6600"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -3041,12 +3444,16 @@
               <a:solidFill>
                 <a:srgbClr val="FFCC00"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -3056,12 +3463,16 @@
               <a:solidFill>
                 <a:srgbClr val="5F9F00"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -3071,12 +3482,16 @@
               <a:solidFill>
                 <a:srgbClr val="00FF00"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -3085,15 +3500,19 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
+                  <a:lumMod val="90000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:val>
@@ -3167,9 +3586,8 @@
           <a:pPr rtl="0">
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -3186,17 +3604,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -3239,13 +3668,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -3272,13 +3707,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -3306,12 +3747,16 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -3321,12 +3766,16 @@
               <a:solidFill>
                 <a:srgbClr val="CC0000"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -3336,12 +3785,16 @@
               <a:solidFill>
                 <a:srgbClr val="9F5F00"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -3351,42 +3804,100 @@
               <a:solidFill>
                 <a:srgbClr val="FF6600"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -3396,12 +3907,16 @@
               <a:solidFill>
                 <a:srgbClr val="00FF00"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -3410,15 +3925,19 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
+                  <a:lumMod val="90000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:val>
@@ -3492,9 +4011,8 @@
           <a:pPr rtl="0">
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -3511,17 +4029,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -3564,13 +4093,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -3597,13 +4132,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -3631,12 +4172,16 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -3646,12 +4191,16 @@
               <a:solidFill>
                 <a:srgbClr val="CC0000"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -3661,12 +4210,16 @@
               <a:solidFill>
                 <a:srgbClr val="9F5F00"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -3676,12 +4229,16 @@
               <a:solidFill>
                 <a:srgbClr val="FF6600"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -3691,12 +4248,16 @@
               <a:solidFill>
                 <a:srgbClr val="FFCC00"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -3706,12 +4267,16 @@
               <a:solidFill>
                 <a:srgbClr val="5F9F00"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -3721,12 +4286,16 @@
               <a:solidFill>
                 <a:srgbClr val="00FF00"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -3735,15 +4304,19 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
+                  <a:lumMod val="90000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:val>
@@ -3817,9 +4390,8 @@
           <a:pPr rtl="0">
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -3836,17 +4408,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -3889,13 +4472,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -3922,13 +4511,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -3956,12 +4551,16 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -3971,12 +4570,16 @@
               <a:solidFill>
                 <a:srgbClr val="CC0000"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -3986,12 +4589,16 @@
               <a:solidFill>
                 <a:srgbClr val="9F5F00"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -4001,59 +4608,145 @@
               <a:solidFill>
                 <a:srgbClr val="FF6600"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -4062,15 +4755,19 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
+                  <a:lumMod val="90000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:val>
@@ -4144,9 +4841,8 @@
           <a:pPr rtl="0">
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -4163,17 +4859,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -4236,6 +4943,46 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5099,35 +5846,33 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5135,37 +5880,44 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5184,14 +5936,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -5200,43 +5944,1024 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5274,7 +6999,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5317,23 +7042,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5438,8 +7162,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5571,20 +7295,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5617,7 +7340,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6120,7 +7843,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6623,7 +8346,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7126,36 +8849,34 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7163,26 +8884,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -7191,9 +8920,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7212,14 +8940,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -7228,20 +8948,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -7250,13 +8970,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -7268,10 +8988,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -7280,16 +9000,17 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -7307,21 +9028,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7331,20 +9049,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -7358,14 +9076,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -7379,9 +9097,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7395,12 +9112,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -7412,9 +9123,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7429,14 +9140,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -7448,14 +9158,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -7467,14 +9177,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -7483,14 +9192,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -7498,7 +9206,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -7511,11 +9219,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -7523,14 +9241,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7542,12 +9260,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -7563,7 +9288,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -7572,9 +9296,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7584,7 +9307,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -7592,9 +9315,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -7605,9 +9328,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7619,46 +9341,38 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7666,37 +9380,44 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7715,14 +9436,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -7731,49 +9444,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -7785,10 +9484,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -7797,16 +9496,17 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -7824,21 +9524,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7857,14 +9554,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -7876,14 +9572,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -7897,9 +9593,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7913,12 +9608,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -7930,9 +9619,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7947,14 +9636,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -7966,14 +9654,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -7985,14 +9673,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -8001,14 +9688,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -8016,7 +9702,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -8029,11 +9715,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -8041,14 +9737,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8060,12 +9756,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -8081,7 +9784,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -8090,9 +9792,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8108,14 +9809,13 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8124,9 +9824,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8138,46 +9837,38 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8185,37 +9876,44 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8234,14 +9932,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -8250,49 +9940,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -8304,10 +9980,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -8316,16 +9992,17 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -8343,21 +10020,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8376,14 +10050,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -8395,14 +10068,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -8416,9 +10089,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8432,12 +10104,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -8449,9 +10115,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8466,14 +10132,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -8485,14 +10150,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -8504,14 +10169,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -8520,14 +10184,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -8535,7 +10198,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -8548,11 +10211,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -8560,14 +10233,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8579,12 +10252,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -8600,7 +10280,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -8609,9 +10288,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8627,14 +10305,13 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8643,9 +10320,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8657,46 +10333,38 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8704,37 +10372,44 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8753,14 +10428,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -8769,49 +10436,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -8823,10 +10476,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -8835,16 +10488,17 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -8862,21 +10516,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8895,14 +10546,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -8914,14 +10564,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -8935,9 +10585,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8951,12 +10600,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -8968,9 +10611,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8985,14 +10628,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -9004,14 +10646,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -9023,14 +10665,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -9039,14 +10680,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -9054,7 +10694,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -9067,11 +10707,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -9079,14 +10729,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9098,12 +10748,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -9119,7 +10776,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -9128,9 +10784,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -9146,14 +10801,13 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9162,9 +10816,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -9176,531 +10829,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -10023,6 +11151,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>29368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>105568</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10289,11 +11447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J88"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I89" sqref="I89"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12750,6 +13908,46 @@
         <v>22.727272727272734</v>
       </c>
     </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>40</v>
+      </c>
+      <c r="C96">
+        <v>5779</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>64</v>
+      </c>
+      <c r="C97">
+        <v>6688</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>59</v>
+      </c>
+      <c r="C98">
+        <v>1096</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
